--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Toolbar_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Toolbar_JS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -269,63 +269,11 @@
 };
 validate3
 {
-validate_Text_Exists=VT283-0105
+validate_Text_Exists=VT200-0604
 };
 validate4
 {
-validate_Screenshot=Toolbar_VT283-0105
-};
-validate5
-{
-validate_Screenshot=Toolbar_Callback
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Native Toolbar JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0604
-};
-validate4
-{
 validate_Screenshot=VT200_0604
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Native Toolbar JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0xxx
-};
-validate4
-{
-validate_Screenshot=Toolbar_VT200-0xxx
-};
-validate5
-{
-validate_PageTitle=Compliance JS specs
-};
-validate6
-{
-validate_Screenshot=Toolbar_Options
-};
-validate7
-{
-validate_AppMinimized=appsscreen
 };</t>
   </si>
   <si>
@@ -574,47 +522,6 @@
 ClickNativeIcon(VT200_0608_minimize_xpath);
 validate8;
 wait(2);
-</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(toolbar_test_link);
-wait(5);
-validate2;
-SelectTestToRun(VT200_0xxx_string);
-ClickRunTest(runtest_top_xpath);
-wait(5);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-TakeScreenshot();
-validate4;
-ClickNativeIcon(HomeImage);
-validate5;
-ClickNativeIcon(OptionsImage);
-TakeScreenshot();
-validate6;
-ClickNativeIcon(ExitImage);
-validate7;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(5);
-validate1;
-link_Click(toolbar_test_link);
-wait(5);
-validate2;
-SelectTestToRun(VT283_0105_string);
-ClickRunTest(runtest_top_xpath);
-wait(5);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-TakeScreenshot();
-validate4;
-ClickNativeIcon(callback);
-TakeScreenshot();
-validate5;
 </t>
   </si>
   <si>
@@ -817,6 +724,64 @@
 {
 validate_AppMinimized=appsscreen
 };</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Native Toolbar JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0610
+};
+validate4
+{
+validate_Screenshot=VT200_0610
+};
+validate5
+{
+validate_PageTitle=Compliance JS specs
+};
+validate6
+{
+validate_PageTitle=Compliance JS specs
+};
+validate7
+{
+validate_AppMinimized=appsscreen
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(5);
+validate1;
+link_Click(toolbar_test_link);
+validate2;
+SelectTestToRun(VT200_0610_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+TakeScreenshot(VT200_0610);
+validate4;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0610_home_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+validate5;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0610_refresh_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+validate6;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0610_exit_xpath);
+wait(2);
+validate7;
+</t>
   </si>
 </sst>
 </file>
@@ -865,7 +830,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -884,21 +849,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1004,72 +954,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1368,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1419,7 +1355,7 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="409.6" thickBot="1">
-      <c r="A2" s="24">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -1438,10 +1374,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1467,10 +1403,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>11</v>
@@ -1496,10 +1432,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
@@ -1523,10 +1459,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -1550,10 +1486,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -1577,10 +1513,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -1604,10 +1540,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -1621,24 +1557,26 @@
         <v>1</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E9" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F9" s="12">
         <v>1</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>63</v>
+      <c r="G9" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="409.6" thickBot="1">
+    <row r="10" spans="1:11" ht="409.5">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -1656,39 +1594,14 @@
         <v>1</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="17"/>
-    </row>
-    <row r="11" spans="1:11" ht="300.75" thickBot="1">
-      <c r="A11" s="18">
-        <v>10</v>
-      </c>
-      <c r="B11" s="18">
-        <v>1</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="21">
-        <v>1</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Toolbar_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Toolbar_JS.xlsx
@@ -312,33 +312,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Native Toolbar JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0603
-};
-validate4
-{
-validate_Screenshot=VT200_0603_new
-};
-validate5
-{
-validate_Text_Exists=VT200-0605
-};
-validate6
-{
-validate_Screenshot=VT200_0605
-};
-</t>
-  </si>
-  <si>
     <t>validate1
 {
 validate_PageTitle=Compliance JS specs
@@ -589,27 +562,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">wait(5);
-validate1;
-link_Click(toolbar_test_link);
-validate2;
-SelectTestToRun(VT200_0603_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-TakeScreenshot(VT200_0603_new);
-validate4;
-SelectTestToRun(VT200_0605_string);
-ClickRunTest(runtest_top_xpath);
-validate5;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-TakeNativeScreenshot(VT200_0605);
-validate6;
-</t>
-  </si>
-  <si>
     <t>wait(5);
 validate1;
 link_Click(toolbar_test_link);
@@ -781,6 +733,54 @@
 ClickNativeIcon(VT200_0610_exit_xpath);
 wait(2);
 validate7;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(5);
+validate1;
+link_Click(toolbar_test_link);
+validate2;
+SelectTestToRun(VT200_0603_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+TakeScreenshot(VT200_0605_before);
+validate4;
+SelectTestToRun(VT200_0605_string);
+ClickRunTest(runtest_top_xpath);
+validate5;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+TakeNativeScreenshot(VT200_0605);
+validate6;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Native Toolbar JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0603
+};
+validate4
+{
+validate_Screenshot=VT200_0605_before
+};
+validate5
+{
+validate_Text_Exists=VT200-0605
+};
+validate6
+{
+validate_Screenshot=VT200_0605
+};
 </t>
   </si>
 </sst>
@@ -1306,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1315,7 +1315,7 @@
     <col min="1" max="1" width="11.140625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="43.5703125" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="45.5703125" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1374,12 +1374,14 @@
         <v>1</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
@@ -1403,14 +1405,12 @@
         <v>1</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>11</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="I3" s="13"/>
       <c r="J3" s="13"/>
       <c r="K3" s="2"/>
     </row>
@@ -1432,10 +1432,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
@@ -1459,10 +1459,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -1486,10 +1486,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>52</v>
@@ -1540,10 +1540,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -1567,10 +1567,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
@@ -1594,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>53</v>
@@ -1619,12 +1619,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="357" thickBot="1">

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Toolbar_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Toolbar_JS.xlsx
@@ -736,6 +736,33 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Native Toolbar JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0603
+};
+validate4
+{
+validate_Screenshot=VT200_0605_before
+};
+validate5
+{
+validate_Text_Exists=VT200-0605
+};
+validate6
+{
+validate_Screenshot=VT200_0605
+};
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">wait(5);
 validate1;
 link_Click(toolbar_test_link);
@@ -752,35 +779,8 @@
 validate5;
 ClickRunTest(runtest_bottom_xpath);
 wait(5);
-TakeNativeScreenshot(VT200_0605);
+TakeScreenshot(VT200_0605);
 validate6;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Native Toolbar JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0603
-};
-validate4
-{
-validate_Screenshot=VT200_0605_before
-};
-validate5
-{
-validate_Text_Exists=VT200-0605
-};
-validate6
-{
-validate_Screenshot=VT200_0605
-};
 </t>
   </si>
 </sst>
@@ -1306,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1459,10 +1459,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>69</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Toolbar_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Toolbar_JS.xlsx
@@ -750,7 +750,7 @@
 };
 validate4
 {
-validate_Screenshot=VT200_0605_before
+validate_isIconDisplayed=toobarview_xpath,true
 };
 validate5
 {
@@ -758,7 +758,7 @@
 };
 validate6
 {
-validate_Screenshot=VT200_0605
+validate_isIconDisplayed=toobarview_xpath,false
 };
 </t>
   </si>
@@ -772,14 +772,12 @@
 validate3;
 ClickRunTest(runtest_bottom_xpath);
 wait(5);
-TakeScreenshot(VT200_0605_before);
 validate4;
 SelectTestToRun(VT200_0605_string);
 ClickRunTest(runtest_top_xpath);
 validate5;
 ClickRunTest(runtest_bottom_xpath);
 wait(5);
-TakeScreenshot(VT200_0605);
 validate6;
 </t>
   </si>
@@ -1306,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1576,7 +1574,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="409.5">
+    <row r="10" spans="1:11" ht="409.6" thickBot="1">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -1584,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="15" t="s">
